--- a/Andrew-annotations/ACAT_Q1_2012.xlsx
+++ b/Andrew-annotations/ACAT_Q1_2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E8CF59-08C4-4B47-B8A7-C8B9629DA69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263FAA76-8271-4EB9-9BFB-BEECAC1CE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1001,13 +1001,13 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1196,13 +1196,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1481,16 +1481,16 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1542,19 +1542,19 @@
         <v>72</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
